--- a/medicine/Enfance/Jon_Michelet/Jon_Michelet.xlsx
+++ b/medicine/Enfance/Jon_Michelet/Jon_Michelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jon Michelet, né le 14 juillet 1944 à Moss dans le comté d'Østfold en Norvège et mort le 14 avril 2018 à Oslo (Norvège)[1], est un écrivain, un présentateur de télévision et un homme politique norvégien, auteur de roman policier, de littérature d'enfance et de jeunesse et d'ouvrages sur le football.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jon Michelet, né le 14 juillet 1944 à Moss dans le comté d'Østfold en Norvège et mort le 14 avril 2018 à Oslo (Norvège), est un écrivain, un présentateur de télévision et un homme politique norvégien, auteur de roman policier, de littérature d'enfance et de jeunesse et d'ouvrages sur le football.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jon Michelet fait des études supérieures à l'université d'Oslo, où il obtient un diplôme en journalisme. Dans les années 1970, il est militant du Arbeidernes kommunistparti (no)) pour lequel, de 1972 à 1976, il s'occupe de la publication d'un organe de presse. De 1997 à 2002, il est rédacteur en chef du journal Klassekampen (no).
 En 1975, il publie son premier roman, Den drukner ei som henges skal, premier volume d'une série consacrée à l'inspecteur gauchiste Vilhelm Thygesen. Avec le quatrième roman de cette série, Comme neige (Hvit som snø), et le neuvième, La Femme congelée (Den frosne kvinnen), il remporte le prix Riverton en 1981 et en 2001. Trois romans de cette série policière ont donné lieu à une mini-série télévisée en trois épisodes. Le personnage de Thygesen y est incarné par l'acteur Reidar Sørensen.
@@ -520,8 +534,6 @@
 De 2003 à 2009, il est président du Rivertonklubben (no).
 Lors des élections législatives norvégiennes de 2009, il est l'un des candidats du parti Rouge, un parti de la gauche antilibérale fondé en 2007.
 Il est présentateur d'émissions de télévision de divertissements, notamment Fort Boyard et Verdensmester (no).
-Famille
-Jon Michelet est le fils du peintre Johan Fredrik Michelet (no) et le père de Tania Michelet (no) et de Marte Michelet (no).
 </t>
         </is>
       </c>
@@ -547,13 +559,59 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jon Michelet est le fils du peintre Johan Fredrik Michelet (no) et le père de Tania Michelet (no) et de Marte Michelet (no).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans
-Série Vilhelm Thygesen
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Vilhelm Thygesen</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Den drukner ei som henges skal (1975)
 Mellom barken og veden (1975)
 Jernkorset (1976)
@@ -566,25 +624,177 @@
 Thygesen-fortellinger (2005)
 Mordet på Woldnes (2008)
 Døden i Baugen (2010)
-Série En sjøens helt
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série En sjøens helt</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 En sjøens helt – Skogsmatrosen (2012)
 En sjøens helt – Skytteren (2013)
 En sjøens helt – Gullgutten (2014)
 En sjøens helt – Blodige strender (2015)
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tiger Bay (1977)
 Orions belte (1977)
 Terra Roxa (1982)
 Le Coconut (1988)
 Farvel til en prins (1993)
 Aftensang i Alma Ata (2003)
-Ouvrages sur les coupes du monde de football
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages sur les coupes du monde de football</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 VM i fotball 1982 (1982) (coécrit avec Dag Solstad)
 VM i fotball 1986 (1986) (coécrit avec Dag Solstad)
 VM i fotball 1990 (1990) (coécrit avec Dag Solstad)
 VM i fotball 1994 (1994) (coécrit avec Dag Solstad)
 VM i fotball 1998 (1998) (coécrit avec Dag Solstad)
-Autres ouvrages
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Michelet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jernkorset – kapitlet som ble vekk (1976), coécrit avec Tron Øgrim
 7800 demonstranter sporløst forsvunnet – og andre merkverdige historier fra 1970-åra (1978)
 Angrepet på Longeyarbyen (1978)
@@ -608,37 +818,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jon_Michelet</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jon_Michelet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix
-Prix Riverton 1981 pour Hvit som snø[2]
-Språklig samlings litteraturpris) 1991[3]
-Prix Riverton 2001 pour Den frosne kvinnen[2]
-Østfoldprisen (no)) 2013[4]
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Prix Riverton 1981 pour Hvit som snø
+Språklig samlings litteraturpris) 1991
+Prix Riverton 2001 pour Den frosne kvinnen
+Østfoldprisen (no)) 2013
 </t>
         </is>
       </c>
